--- a/counter_apl.xlsx
+++ b/counter_apl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2018" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2017" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>2017/12/11</t>
   </si>
@@ -30,19 +30,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,17 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -356,168 +356,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="9.28515625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="9.85546875"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="n">
+      <c r="A1">
         <v>80002130</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>60</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>628043</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>24349298</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>80002130</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>628043</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>24349298</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>80002130</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>60</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>628043</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>24349298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>80002130</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>628043</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>24349298</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>80002130</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>628043</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>24349298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>80002130</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>89</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>80002121</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>80001111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>456</v>
+      </c>
+      <c r="E9">
+        <v>5698741692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/counter_apl.xlsx
+++ b/counter_apl.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
+    <workbookView activeTab="0" windowHeight="11445" windowWidth="28455" xWindow="240" yWindow="525"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" r:id="rId1"/>
-    <sheet name="2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2018" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>2017/12/11</t>
+    <t>2017/12/14</t>
   </si>
   <si>
-    <t>2017/12/12</t>
+    <t>2017/12/15</t>
   </si>
   <si>
     <t>**</t>
@@ -30,18 +30,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,18 +58,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -356,194 +356,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>80002130</v>
+      <c r="A1" t="n">
+        <v>80004130</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>60</v>
-      </c>
-      <c r="D1">
-        <v>628043</v>
-      </c>
-      <c r="E1">
-        <v>24349298</v>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>541967</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1052658</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>80002130</v>
+      <c r="A2" t="n">
+        <v>80003583</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>628043</v>
-      </c>
-      <c r="E2">
-        <v>24349298</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>273154</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3992855</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>80002130</v>
+      <c r="A3" t="n">
+        <v>80004129</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>628043</v>
-      </c>
-      <c r="E3">
-        <v>24349298</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>536900</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1745295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>80002130</v>
+      <c r="A4" t="n">
+        <v>80000571</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>628043</v>
-      </c>
-      <c r="E4">
-        <v>24349298</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83254</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11958061</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>80002130</v>
+      <c r="A5" t="n">
+        <v>80004135</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>628043</v>
-      </c>
-      <c r="E5">
-        <v>24349298</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>373085</v>
+      </c>
+      <c r="E5" t="n">
+        <v>781924</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>80002130</v>
+      <c r="A6" t="n">
+        <v>80002132</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>89</v>
-      </c>
-      <c r="E6">
-        <v>99</v>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87080</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5820597</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>80002121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>80001111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>456</v>
-      </c>
-      <c r="E9">
-        <v>5698741692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/counter_apl.xlsx
+++ b/counter_apl.xlsx
@@ -3,24 +3,27 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11445" windowWidth="28455" xWindow="240" yWindow="525"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2018" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>2017/12/14</t>
   </si>
   <si>
     <t>2017/12/15</t>
+  </si>
+  <si>
+    <t>2017/12/25</t>
   </si>
   <si>
     <t>**</t>
@@ -361,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -477,8 +480,212 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>2</v>
+      <c r="A7" t="n">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>89</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>350029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>150029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>89</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>89</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>89</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>89</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>89</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>34002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
